--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna2-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H2">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I2">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J2">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N2">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O2">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P2">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q2">
-        <v>15.49155624996479</v>
+        <v>5.30434117149</v>
       </c>
       <c r="R2">
-        <v>15.49155624996479</v>
+        <v>47.73907054341</v>
       </c>
       <c r="S2">
-        <v>0.1288787318808869</v>
+        <v>0.02629117536385174</v>
       </c>
       <c r="T2">
-        <v>0.1288787318808869</v>
+        <v>0.03164198029581168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H3">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I3">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J3">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N3">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O3">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P3">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q3">
-        <v>13.7206239807742</v>
+        <v>4.704011972438</v>
       </c>
       <c r="R3">
-        <v>13.7206239807742</v>
+        <v>42.336107751942</v>
       </c>
       <c r="S3">
-        <v>0.1141458347195223</v>
+        <v>0.02331562010862987</v>
       </c>
       <c r="T3">
-        <v>0.1141458347195223</v>
+        <v>0.02806083721446122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H4">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I4">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J4">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N4">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O4">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P4">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q4">
-        <v>10.5926406781521</v>
+        <v>4.880675684584</v>
       </c>
       <c r="R4">
-        <v>10.5926406781521</v>
+        <v>43.926081161256</v>
       </c>
       <c r="S4">
-        <v>0.08812323796540725</v>
+        <v>0.02419126073699368</v>
       </c>
       <c r="T4">
-        <v>0.08812323796540725</v>
+        <v>0.02911468905354616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H5">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I5">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J5">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N5">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O5">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P5">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q5">
-        <v>12.43289642756128</v>
+        <v>4.144905479068</v>
       </c>
       <c r="R5">
-        <v>12.43289642756128</v>
+        <v>37.304149311612</v>
       </c>
       <c r="S5">
-        <v>0.1034328571859362</v>
+        <v>0.02054438681329308</v>
       </c>
       <c r="T5">
-        <v>0.1034328571859362</v>
+        <v>0.02472559989195235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.03393674090764</v>
+        <v>1.186026</v>
       </c>
       <c r="H6">
-        <v>4.03393674090764</v>
+        <v>3.558078</v>
       </c>
       <c r="I6">
-        <v>0.7096733959659056</v>
+        <v>0.1428187553521992</v>
       </c>
       <c r="J6">
-        <v>0.7096733959659056</v>
+        <v>0.1524379446999992</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N6">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O6">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P6">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q6">
-        <v>33.06685675627116</v>
+        <v>9.780274018656002</v>
       </c>
       <c r="R6">
-        <v>33.06685675627116</v>
+        <v>58.68164411193601</v>
       </c>
       <c r="S6">
-        <v>0.2750927342141529</v>
+        <v>0.04847631232943077</v>
       </c>
       <c r="T6">
-        <v>0.2750927342141529</v>
+        <v>0.03889483824422781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H7">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I7">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J7">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N7">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O7">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P7">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q7">
-        <v>1.949101311675982</v>
+        <v>19.64731710009667</v>
       </c>
       <c r="R7">
-        <v>1.949101311675982</v>
+        <v>176.82585390087</v>
       </c>
       <c r="S7">
-        <v>0.0162151368979953</v>
+        <v>0.09738269892672541</v>
       </c>
       <c r="T7">
-        <v>0.0162151368979953</v>
+        <v>0.1172021181232186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H8">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I8">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J8">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N8">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O8">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P8">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q8">
-        <v>1.726287905903624</v>
+        <v>17.42369351388822</v>
       </c>
       <c r="R8">
-        <v>1.726287905903624</v>
+        <v>156.813241624994</v>
       </c>
       <c r="S8">
-        <v>0.01436148780563453</v>
+        <v>0.08636122128075016</v>
       </c>
       <c r="T8">
-        <v>0.01436148780563453</v>
+        <v>0.1039375388992646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H9">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I9">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J9">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N9">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O9">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P9">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q9">
-        <v>1.332734394579985</v>
+        <v>18.07805714933244</v>
       </c>
       <c r="R9">
-        <v>1.332734394579985</v>
+        <v>162.702514343992</v>
       </c>
       <c r="S9">
-        <v>0.01108740244918262</v>
+        <v>0.08960460034234982</v>
       </c>
       <c r="T9">
-        <v>0.01108740244918262</v>
+        <v>0.1078410135419422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H10">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I10">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J10">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N10">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O10">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P10">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q10">
-        <v>1.5642698734639</v>
+        <v>15.35275912018711</v>
       </c>
       <c r="R10">
-        <v>1.5642698734639</v>
+        <v>138.174832081684</v>
       </c>
       <c r="S10">
-        <v>0.01301361298752415</v>
+        <v>0.07609655361486291</v>
       </c>
       <c r="T10">
-        <v>0.01301361298752415</v>
+        <v>0.09158379633994089</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.507537865534903</v>
+        <v>4.393048666666667</v>
       </c>
       <c r="H11">
-        <v>0.507537865534903</v>
+        <v>13.179146</v>
       </c>
       <c r="I11">
-        <v>0.08928898585910881</v>
+        <v>0.5290016768392695</v>
       </c>
       <c r="J11">
-        <v>0.08928898585910881</v>
+        <v>0.5646312220084034</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.197167898282681</v>
+        <v>8.246256000000001</v>
       </c>
       <c r="N11">
-        <v>8.197167898282681</v>
+        <v>16.492512</v>
       </c>
       <c r="O11">
-        <v>0.3876328685531971</v>
+        <v>0.3394253941639908</v>
       </c>
       <c r="P11">
-        <v>0.3876328685531971</v>
+        <v>0.2551519460641745</v>
       </c>
       <c r="Q11">
-        <v>4.160373098525619</v>
+        <v>36.22620392579201</v>
       </c>
       <c r="R11">
-        <v>4.160373098525619</v>
+        <v>217.357223554752</v>
       </c>
       <c r="S11">
-        <v>0.0346113457187722</v>
+        <v>0.1795566026745811</v>
       </c>
       <c r="T11">
-        <v>0.0346113457187722</v>
+        <v>0.1440667551040371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.142741208661</v>
+        <v>0.785643</v>
       </c>
       <c r="H12">
-        <v>1.142741208661</v>
+        <v>2.356929</v>
       </c>
       <c r="I12">
-        <v>0.2010376181749855</v>
+        <v>0.09460547695511548</v>
       </c>
       <c r="J12">
-        <v>0.2010376181749855</v>
+        <v>0.1009773851399054</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.84030718500538</v>
+        <v>4.472365</v>
       </c>
       <c r="N12">
-        <v>3.84030718500538</v>
+        <v>13.417095</v>
       </c>
       <c r="O12">
-        <v>0.1816028790334963</v>
+        <v>0.1840876942178652</v>
       </c>
       <c r="P12">
-        <v>0.1816028790334963</v>
+        <v>0.2075728609309428</v>
       </c>
       <c r="Q12">
-        <v>4.388477274222571</v>
+        <v>3.513682255695</v>
       </c>
       <c r="R12">
-        <v>4.388477274222571</v>
+        <v>31.623140301255</v>
       </c>
       <c r="S12">
-        <v>0.03650901025461411</v>
+        <v>0.0174157041130486</v>
       </c>
       <c r="T12">
-        <v>0.03650901025461411</v>
+        <v>0.02096016472281584</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.142741208661</v>
+        <v>0.785643</v>
       </c>
       <c r="H13">
-        <v>1.142741208661</v>
+        <v>2.356929</v>
       </c>
       <c r="I13">
-        <v>0.2010376181749855</v>
+        <v>0.09460547695511548</v>
       </c>
       <c r="J13">
-        <v>0.2010376181749855</v>
+        <v>0.1009773851399054</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40129874661521</v>
+        <v>3.966196333333333</v>
       </c>
       <c r="N13">
-        <v>3.40129874661521</v>
+        <v>11.898589</v>
       </c>
       <c r="O13">
-        <v>0.1608427698831283</v>
+        <v>0.163253208943967</v>
       </c>
       <c r="P13">
-        <v>0.1608427698831283</v>
+        <v>0.1840803959256042</v>
       </c>
       <c r="Q13">
-        <v>3.88680424072421</v>
+        <v>3.116014385909</v>
       </c>
       <c r="R13">
-        <v>3.88680424072421</v>
+        <v>28.044129473181</v>
       </c>
       <c r="S13">
-        <v>0.0323354473579714</v>
+        <v>0.01544464769659712</v>
       </c>
       <c r="T13">
-        <v>0.0323354473579714</v>
+        <v>0.01858795703608602</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.142741208661</v>
+        <v>0.785643</v>
       </c>
       <c r="H14">
-        <v>1.142741208661</v>
+        <v>2.356929</v>
       </c>
       <c r="I14">
-        <v>0.2010376181749855</v>
+        <v>0.09460547695511548</v>
       </c>
       <c r="J14">
-        <v>0.2010376181749855</v>
+        <v>0.1009773851399054</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.62588170278762</v>
+        <v>4.115150666666667</v>
       </c>
       <c r="N14">
-        <v>2.62588170278762</v>
+        <v>12.345452</v>
       </c>
       <c r="O14">
-        <v>0.1241743574809741</v>
+        <v>0.1693843408545093</v>
       </c>
       <c r="P14">
-        <v>0.1241743574809741</v>
+        <v>0.1909937129554221</v>
       </c>
       <c r="Q14">
-        <v>3.00070323084433</v>
+        <v>3.233039315212</v>
       </c>
       <c r="R14">
-        <v>3.00070323084433</v>
+        <v>29.097353836908</v>
       </c>
       <c r="S14">
-        <v>0.02496371706638422</v>
+        <v>0.01602468635526871</v>
       </c>
       <c r="T14">
-        <v>0.02496371706638422</v>
+        <v>0.01928604571240021</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.142741208661</v>
+        <v>0.785643</v>
       </c>
       <c r="H15">
-        <v>1.142741208661</v>
+        <v>2.356929</v>
       </c>
       <c r="I15">
-        <v>0.2010376181749855</v>
+        <v>0.09460547695511548</v>
       </c>
       <c r="J15">
-        <v>0.2010376181749855</v>
+        <v>0.1009773851399054</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.08207520992604</v>
+        <v>3.494784666666666</v>
       </c>
       <c r="N15">
-        <v>3.08207520992604</v>
+        <v>10.484354</v>
       </c>
       <c r="O15">
-        <v>0.1457471250492041</v>
+        <v>0.1438493618196675</v>
       </c>
       <c r="P15">
-        <v>0.1457471250492041</v>
+        <v>0.1622010841238564</v>
       </c>
       <c r="Q15">
-        <v>3.522014350574988</v>
+        <v>2.745653109874</v>
       </c>
       <c r="R15">
-        <v>3.522014350574988</v>
+        <v>24.710877988866</v>
       </c>
       <c r="S15">
-        <v>0.02930065487574376</v>
+        <v>0.01360893748463863</v>
       </c>
       <c r="T15">
-        <v>0.02930065487574376</v>
+        <v>0.01637864134168485</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.785643</v>
+      </c>
+      <c r="H16">
+        <v>2.356929</v>
+      </c>
+      <c r="I16">
+        <v>0.09460547695511548</v>
+      </c>
+      <c r="J16">
+        <v>0.1009773851399054</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.246256000000001</v>
+      </c>
+      <c r="N16">
+        <v>16.492512</v>
+      </c>
+      <c r="O16">
+        <v>0.3394253941639908</v>
+      </c>
+      <c r="P16">
+        <v>0.2551519460641745</v>
+      </c>
+      <c r="Q16">
+        <v>6.478613302608</v>
+      </c>
+      <c r="R16">
+        <v>38.871679815648</v>
+      </c>
+      <c r="S16">
+        <v>0.03211150130556242</v>
+      </c>
+      <c r="T16">
+        <v>0.02576457632691852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.102837</v>
+      </c>
+      <c r="I17">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J17">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.472365</v>
+      </c>
+      <c r="N17">
+        <v>13.417095</v>
+      </c>
+      <c r="O17">
+        <v>0.1840876942178652</v>
+      </c>
+      <c r="P17">
+        <v>0.2075728609309428</v>
+      </c>
+      <c r="Q17">
+        <v>1.644096533168333</v>
+      </c>
+      <c r="R17">
+        <v>14.796868798515</v>
+      </c>
+      <c r="S17">
+        <v>0.008149029044541511</v>
+      </c>
+      <c r="T17">
+        <v>0.009807527160307354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.102837</v>
+      </c>
+      <c r="I18">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J18">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.966196333333333</v>
+      </c>
+      <c r="N18">
+        <v>11.898589</v>
+      </c>
+      <c r="O18">
+        <v>0.163253208943967</v>
+      </c>
+      <c r="P18">
+        <v>0.1840803959256042</v>
+      </c>
+      <c r="Q18">
+        <v>1.458022688554778</v>
+      </c>
+      <c r="R18">
+        <v>13.122204196993</v>
+      </c>
+      <c r="S18">
+        <v>0.007226746724984963</v>
+      </c>
+      <c r="T18">
+        <v>0.008697541068825577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.102837</v>
+      </c>
+      <c r="I19">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J19">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.115150666666667</v>
+      </c>
+      <c r="N19">
+        <v>12.345452</v>
+      </c>
+      <c r="O19">
+        <v>0.1693843408545093</v>
+      </c>
+      <c r="P19">
+        <v>0.1909937129554221</v>
+      </c>
+      <c r="Q19">
+        <v>1.512780138591556</v>
+      </c>
+      <c r="R19">
+        <v>13.615021247324</v>
+      </c>
+      <c r="S19">
+        <v>0.00749815417689098</v>
+      </c>
+      <c r="T19">
+        <v>0.009024185622615829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.102837</v>
+      </c>
+      <c r="I20">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J20">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.494784666666666</v>
+      </c>
+      <c r="N20">
+        <v>10.484354</v>
+      </c>
+      <c r="O20">
+        <v>0.1438493618196675</v>
+      </c>
+      <c r="P20">
+        <v>0.1622010841238564</v>
+      </c>
+      <c r="Q20">
+        <v>1.284725945810889</v>
+      </c>
+      <c r="R20">
+        <v>11.562533512298</v>
+      </c>
+      <c r="S20">
+        <v>0.006367794612712733</v>
+      </c>
+      <c r="T20">
+        <v>0.00766377420844654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.3676123333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.102837</v>
+      </c>
+      <c r="I21">
+        <v>0.04426710367123859</v>
+      </c>
+      <c r="J21">
+        <v>0.04724860040142825</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.246256000000001</v>
+      </c>
+      <c r="N21">
+        <v>16.492512</v>
+      </c>
+      <c r="O21">
+        <v>0.3394253941639908</v>
+      </c>
+      <c r="P21">
+        <v>0.2551519460641745</v>
+      </c>
+      <c r="Q21">
+        <v>3.031425409424001</v>
+      </c>
+      <c r="R21">
+        <v>18.188552456544</v>
+      </c>
+      <c r="S21">
+        <v>0.0150253791121084</v>
+      </c>
+      <c r="T21">
+        <v>0.01205557234123295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.5720835</v>
+      </c>
+      <c r="H22">
+        <v>3.144167</v>
+      </c>
+      <c r="I22">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J22">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.472365</v>
+      </c>
+      <c r="N22">
+        <v>13.417095</v>
+      </c>
+      <c r="O22">
+        <v>0.1840876942178652</v>
+      </c>
+      <c r="P22">
+        <v>0.2075728609309428</v>
+      </c>
+      <c r="Q22">
+        <v>7.030931222477501</v>
+      </c>
+      <c r="R22">
+        <v>42.18558733486501</v>
+      </c>
+      <c r="S22">
+        <v>0.03484908676969799</v>
+      </c>
+      <c r="T22">
+        <v>0.02796107062878929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.5720835</v>
+      </c>
+      <c r="H23">
+        <v>3.144167</v>
+      </c>
+      <c r="I23">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J23">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.966196333333333</v>
+      </c>
+      <c r="N23">
+        <v>11.898589</v>
+      </c>
+      <c r="O23">
+        <v>0.163253208943967</v>
+      </c>
+      <c r="P23">
+        <v>0.1840803959256042</v>
+      </c>
+      <c r="Q23">
+        <v>6.235191813393834</v>
+      </c>
+      <c r="R23">
+        <v>37.411150880363</v>
+      </c>
+      <c r="S23">
+        <v>0.03090497313300487</v>
+      </c>
+      <c r="T23">
+        <v>0.02479652170696676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.142741208661</v>
-      </c>
-      <c r="H16">
-        <v>1.142741208661</v>
-      </c>
-      <c r="I16">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="J16">
-        <v>0.2010376181749855</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.197167898282681</v>
-      </c>
-      <c r="N16">
-        <v>8.197167898282681</v>
-      </c>
-      <c r="O16">
-        <v>0.3876328685531971</v>
-      </c>
-      <c r="P16">
-        <v>0.3876328685531971</v>
-      </c>
-      <c r="Q16">
-        <v>9.367241551680699</v>
-      </c>
-      <c r="R16">
-        <v>9.367241551680699</v>
-      </c>
-      <c r="S16">
-        <v>0.07792878862027196</v>
-      </c>
-      <c r="T16">
-        <v>0.07792878862027196</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.5720835</v>
+      </c>
+      <c r="H24">
+        <v>3.144167</v>
+      </c>
+      <c r="I24">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J24">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.115150666666667</v>
+      </c>
+      <c r="N24">
+        <v>12.345452</v>
+      </c>
+      <c r="O24">
+        <v>0.1693843408545093</v>
+      </c>
+      <c r="P24">
+        <v>0.1909937129554221</v>
+      </c>
+      <c r="Q24">
+        <v>6.469360463080667</v>
+      </c>
+      <c r="R24">
+        <v>38.81616277848401</v>
+      </c>
+      <c r="S24">
+        <v>0.03206563924300615</v>
+      </c>
+      <c r="T24">
+        <v>0.02572777902491769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.5720835</v>
+      </c>
+      <c r="H25">
+        <v>3.144167</v>
+      </c>
+      <c r="I25">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J25">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.494784666666666</v>
+      </c>
+      <c r="N25">
+        <v>10.484354</v>
+      </c>
+      <c r="O25">
+        <v>0.1438493618196675</v>
+      </c>
+      <c r="P25">
+        <v>0.1622010841238564</v>
+      </c>
+      <c r="Q25">
+        <v>5.494093310519667</v>
+      </c>
+      <c r="R25">
+        <v>32.96455986311801</v>
+      </c>
+      <c r="S25">
+        <v>0.02723168929416019</v>
+      </c>
+      <c r="T25">
+        <v>0.02184927234183178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.5720835</v>
+      </c>
+      <c r="H26">
+        <v>3.144167</v>
+      </c>
+      <c r="I26">
+        <v>0.1893069871821773</v>
+      </c>
+      <c r="J26">
+        <v>0.1347048477502636</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>8.246256000000001</v>
+      </c>
+      <c r="N26">
+        <v>16.492512</v>
+      </c>
+      <c r="O26">
+        <v>0.3394253941639908</v>
+      </c>
+      <c r="P26">
+        <v>0.2551519460641745</v>
+      </c>
+      <c r="Q26">
+        <v>12.963802994376</v>
+      </c>
+      <c r="R26">
+        <v>51.85521197750401</v>
+      </c>
+      <c r="S26">
+        <v>0.06425559874230809</v>
+      </c>
+      <c r="T26">
+        <v>0.0343702040477581</v>
       </c>
     </row>
   </sheetData>
